--- a/Partial Least Squares Regression/PLSR_metrics_SG.xlsx
+++ b/Partial Least Squares Regression/PLSR_metrics_SG.xlsx
@@ -475,13 +475,13 @@
         <v>0.7237777873477469</v>
       </c>
       <c r="C2" t="n">
-        <v>1.282712168918808</v>
+        <v>1.282712168918807</v>
       </c>
       <c r="D2" t="n">
-        <v>2.546408760603864</v>
+        <v>2.546408760603863</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8172749181555057</v>
+        <v>0.8172749181555058</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8590649634300814</v>
+        <v>0.8590649634300813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9162403238120432</v>
+        <v>0.9162403238120435</v>
       </c>
       <c r="D3" t="n">
-        <v>1.985009589357339</v>
+        <v>1.985009589357345</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8590649634300823</v>
+        <v>0.8590649634300818</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8511830679530915</v>
+        <v>0.7693344741372451</v>
       </c>
       <c r="C4" t="n">
-        <v>1.015132580526137</v>
+        <v>1.263827901423533</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1742957217730048</v>
+        <v>2.850324912663027</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9836829591941275</v>
+        <v>0.7751513876517242</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4113856295130187</v>
+        <v>0.4113856295130186</v>
       </c>
       <c r="C5" t="n">
         <v>0.2399687542191098</v>
       </c>
       <c r="D5" t="n">
-        <v>1.501212442401528</v>
+        <v>1.501212442401527</v>
       </c>
       <c r="E5" t="n">
-        <v>0.54318425225547</v>
+        <v>0.5431842522554702</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6632026352630533</v>
+        <v>0.6632026352630535</v>
       </c>
       <c r="C6" t="n">
         <v>0.1815196346925029</v>
       </c>
       <c r="D6" t="n">
-        <v>1.105282346030012</v>
+        <v>1.105282346030013</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6632026352630532</v>
+        <v>0.6632026352630529</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4657447524858903</v>
+        <v>0.36866429029728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1834355918157258</v>
+        <v>0.1994065337379439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.494611145474793</v>
+        <v>1.091702400591007</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8578895005947402</v>
+        <v>0.672249785793101</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         <v>1.982329803157426</v>
       </c>
       <c r="D8" t="n">
-        <v>4.383791578036267</v>
+        <v>4.38379157803626</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7197748816916135</v>
+        <v>0.7197748816916139</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -646,10 +646,10 @@
         <v>1.341611606898228</v>
       </c>
       <c r="D9" t="n">
-        <v>3.19818180221154</v>
+        <v>3.198181802211544</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7930384151307971</v>
+        <v>0.7930384151307969</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7509840208657466</v>
+        <v>0.6187056804012239</v>
       </c>
       <c r="C10" t="n">
-        <v>1.444123341556427</v>
+        <v>1.786984753496657</v>
       </c>
       <c r="D10" t="n">
-        <v>1.333936194006412</v>
+        <v>3.921996075582012</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8952473950399507</v>
+        <v>0.712744398541705</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4193721295274827</v>
+        <v>0.419372129527483</v>
       </c>
       <c r="C11" t="n">
-        <v>71.33157886927526</v>
+        <v>71.33157886927523</v>
       </c>
       <c r="D11" t="n">
         <v>234.0106060217637</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5381202272564959</v>
+        <v>0.5381202272564958</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6524561566930797</v>
+        <v>0.6524561566930798</v>
       </c>
       <c r="C12" t="n">
-        <v>55.1871157945187</v>
+        <v>55.18711579451868</v>
       </c>
       <c r="D12" t="n">
-        <v>176.2549992840694</v>
+        <v>176.2549992840693</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6524561566930792</v>
+        <v>0.6524561566930794</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5700144875213315</v>
+        <v>0.4994516281317321</v>
       </c>
       <c r="C13" t="n">
-        <v>66.20351420605876</v>
+        <v>71.42942567176385</v>
       </c>
       <c r="D13" t="n">
-        <v>1.900655001184305</v>
+        <v>128.6531648416061</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9781849618910137</v>
+        <v>0.7635456769531122</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5794894422823411</v>
+        <v>0.5794894422823409</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2987436522198713</v>
+        <v>0.2987436522198714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.359967765355468</v>
+        <v>0.3599677653554678</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6492545193630046</v>
+        <v>0.6492545193630047</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>0.2456257732231658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2972480973687997</v>
+        <v>0.2972480973687998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7157323746001715</v>
+        <v>0.7157323746001714</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4758734779545745</v>
+        <v>0.3898741030172687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4916335462699312</v>
+        <v>0.5304362184867907</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.005221423129689429</v>
+        <v>0.3108195518084244</v>
       </c>
       <c r="E16" t="n">
-        <v>1.107326028026862</v>
+        <v>0.9248938204621666</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>

--- a/Partial Least Squares Regression/PLSR_metrics_SG.xlsx
+++ b/Partial Least Squares Regression/PLSR_metrics_SG.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7237777873477469</v>
+        <v>0.7680694133457152</v>
       </c>
       <c r="C2" t="n">
-        <v>1.282712168918807</v>
+        <v>1.181633127634758</v>
       </c>
       <c r="D2" t="n">
-        <v>2.546408760603863</v>
+        <v>2.7707518886967</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8172749181555058</v>
+        <v>0.8015449958568919</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8590649634300813</v>
+        <v>0.8623399184640269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9162403238120435</v>
+        <v>0.9103484478902212</v>
       </c>
       <c r="D3" t="n">
-        <v>1.985009589357345</v>
+        <v>1.93844205497021</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8590649634300818</v>
+        <v>0.8623399184640269</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7693344741372451</v>
+        <v>0.7200486452838057</v>
       </c>
       <c r="C4" t="n">
-        <v>1.263827901423533</v>
+        <v>1.238505681128342</v>
       </c>
       <c r="D4" t="n">
-        <v>2.850324912663027</v>
+        <v>2.590357879698166</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7751513876517242</v>
+        <v>0.8290337353308611</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4113856295130186</v>
+        <v>0.5497030423193219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2399687542191098</v>
+        <v>0.1833222761016409</v>
       </c>
       <c r="D5" t="n">
-        <v>1.501212442401527</v>
+        <v>1.271885438688331</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5431842522554702</v>
+        <v>0.6136772177766912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6632026352630535</v>
+        <v>0.6777193696683295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1815196346925029</v>
+        <v>0.1550896573809421</v>
       </c>
       <c r="D6" t="n">
-        <v>1.105282346030013</v>
+        <v>1.059850879862904</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6632026352630529</v>
+        <v>0.6777193696683296</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.36866429029728</v>
+        <v>0.539348606850352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1994065337379439</v>
+        <v>0.1770731084809344</v>
       </c>
       <c r="D7" t="n">
-        <v>1.091702400591007</v>
+        <v>0.5630096105305804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.672249785793101</v>
+        <v>0.8131534017507828</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5481565943508546</v>
+        <v>0.803928230091422</v>
       </c>
       <c r="C8" t="n">
-        <v>1.982329803157426</v>
+        <v>1.125748463544763</v>
       </c>
       <c r="D8" t="n">
-        <v>4.38379157803626</v>
+        <v>2.448713623571726</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7197748816916139</v>
+        <v>0.8385293441873655</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7930384151307965</v>
+        <v>0.8862309341551403</v>
       </c>
       <c r="C9" t="n">
-        <v>1.341611606898228</v>
+        <v>0.8575232904558949</v>
       </c>
       <c r="D9" t="n">
-        <v>3.198181802211544</v>
+        <v>1.747327715833416</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7930384151307969</v>
+        <v>0.8862309341551408</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6187056804012239</v>
+        <v>0.81501881834755</v>
       </c>
       <c r="C10" t="n">
-        <v>1.786984753496657</v>
+        <v>1.0408921970995</v>
       </c>
       <c r="D10" t="n">
-        <v>3.921996075582012</v>
+        <v>2.106654949052748</v>
       </c>
       <c r="E10" t="n">
-        <v>0.712744398541705</v>
+        <v>0.867748233192027</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.419372129527483</v>
+        <v>0.2785330162924831</v>
       </c>
       <c r="C11" t="n">
-        <v>71.33157886927523</v>
+        <v>75.53254587844606</v>
       </c>
       <c r="D11" t="n">
-        <v>234.0106060217637</v>
+        <v>250.4150020241427</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5381202272564958</v>
+        <v>0.5002497378882358</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6524561566930798</v>
+        <v>0.6745671497967217</v>
       </c>
       <c r="C12" t="n">
-        <v>55.18711579451868</v>
+        <v>50.7290334126543</v>
       </c>
       <c r="D12" t="n">
-        <v>176.2549992840693</v>
+        <v>164.6222104054807</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6524561566930794</v>
+        <v>0.6745671497967221</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4994516281317321</v>
+        <v>0.3548046704988478</v>
       </c>
       <c r="C13" t="n">
-        <v>71.42942567176385</v>
+        <v>73.63360339031061</v>
       </c>
       <c r="D13" t="n">
-        <v>128.6531648416061</v>
+        <v>124.8333250385056</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7635456769531122</v>
+        <v>0.7341516238216764</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5794894422823409</v>
+        <v>0.5149862177358897</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2987436522198714</v>
+        <v>0.3095570263148265</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3599677653554678</v>
+        <v>0.4220208253722691</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6492545193630047</v>
+        <v>0.5958839049576565</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7157323746001717</v>
+        <v>0.6472766351829256</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2456257732231658</v>
+        <v>0.2639859058310386</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2972480973687998</v>
+        <v>0.3710364990189746</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7157323746001714</v>
+        <v>0.6472766351829257</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3898741030172687</v>
+        <v>0.6865312788630819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5304362184867907</v>
+        <v>0.2544760024249205</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3108195518084244</v>
+        <v>0.05452840976472473</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9248938204621666</v>
+        <v>0.9592943157900036</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
